--- a/biology/Médecine/Jean_Tarneaud/Jean_Tarneaud.xlsx
+++ b/biology/Médecine/Jean_Tarneaud/Jean_Tarneaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Tarneaud (1888-1972) est un médecin ORL qui développa la phoniatrie en France.
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir soutenu sa thèse en 1917, il exerça comme Laryngologiste à l'Hôpital Bellan et au Conservatoire national de musique de Paris. Il fut chef des travaux de Phoniatrie à la Faculté de Médecine de Paris. Il fit adopter le terme phoniatrie en 1932. Il fonda la Société Française de phoniatrie puis en 1947, avec Richard Luchsinger (1900 - 1993) et Miroslav Seeman (1892 - 1975), la revue Folia Phoniatrica et Logopaedica, International Journal of Phoniatrics, Speech Therapy and Communication Pathology, organe officiel de l'International Association of Logopedics and Phoniatrics (IALP).
 </t>
@@ -542,7 +556,9 @@
           <t>Articles scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Husson (R) et Tarneaud (J), 1932, La mécanique des cordes vocales dans la phonation, Revue de Laryngologie, 8, 43.
 Husson (R) et Tarneaud (J), 1933, Les phénomènes réactionnels de la voix - Étude physique, physiologique et pathologique, Revue française de phoniatrie, 1, 4.
@@ -575,7 +591,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tarneaud (J), 1933, Le nodule de la corde vocale, Paris, Maloine.
 Tarneaud (J), 1934, "Laryngologie et chronaxie - Étude de l'image Laryngoplégique"
